--- a/Support/isoLanguageCodes.xlsx
+++ b/Support/isoLanguageCodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\RemotelyBackedUp\Git\StepTextConversion\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CF6609-D8F2-49BB-BFD6-9E5DFC303051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AACA31-2037-4BD3-AA2A-9C50732C1CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E1489C6E-6178-4409-B706-5E4ED5E573FE}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="1663">
   <si>
     <t>aar</t>
   </si>
@@ -5014,9 +5014,6 @@
   </si>
   <si>
     <t>FrenchName</t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
   <si>
     <t>See head-of-class comments to IsoLanguageCodes.kt for details about the use of language codes in the STEP converter.</t>
@@ -5421,9 +5418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590B85F1-DE44-4B29-B094-F70A192AE6D2}">
   <dimension ref="A1:F490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D454" sqref="D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5438,7 +5435,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -5459,9 +5456,7 @@
       <c r="E3" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>1662</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5476,10 +5471,6 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="str">
-        <f>SUBSTITUTE("    addIso639_2_LanguageDetails(""" &amp; A4 &amp; """, """ &amp; B4 &amp; """, """ &amp; C4 &amp; """, """ &amp; D4 &amp; """)", """""", "null")</f>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("aar", null, "aa", "Afar")</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5494,10 +5485,6 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" ref="F5:F68" si="0">SUBSTITUTE("    addIso639_2_LanguageDetails(""" &amp; A5 &amp; """, """ &amp; B5 &amp; """, """ &amp; C5 &amp; """, """ &amp; D5 &amp; """)", """""", "null")</f>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("abk", null, "ab", "Abkhazian")</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5509,10 +5496,6 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ace", null, null, "Achinese")</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5524,10 +5507,6 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ach", null, null, "Acoli")</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -5539,10 +5518,6 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ada", null, null, "Adangme")</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -5554,10 +5529,6 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ady", null, null, "Adyghe; Adygei")</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -5569,10 +5540,6 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("afa", null, null, "Afro-Asiatic languages")</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -5584,10 +5551,6 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("afh", null, null, "Afrihili")</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5602,10 +5565,6 @@
       <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("afr", null, "af", "Afrikaans")</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5617,10 +5576,6 @@
       <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ain", null, null, "Ainu")</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -5635,10 +5590,6 @@
       <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("aka", null, "ak", "Akan")</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5650,10 +5601,6 @@
       <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("akk", null, null, "Akkadian")</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5671,12 +5618,8 @@
       <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("alb", "sqi", "sq", "Albanian")</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -5686,12 +5629,8 @@
       <c r="E17" t="s">
         <v>47</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ale", null, null, "Aleut")</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -5701,12 +5640,8 @@
       <c r="E18" t="s">
         <v>50</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("alg", null, null, "Algonquian languages")</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -5716,12 +5651,8 @@
       <c r="E19" t="s">
         <v>53</v>
       </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("alt", null, null, "Southern Altai")</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -5734,12 +5665,8 @@
       <c r="E20" t="s">
         <v>57</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("amh", null, "am", "Amharic")</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -5749,12 +5676,8 @@
       <c r="E21" t="s">
         <v>60</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ang", null, null, "English, Old (ca.450-1100)")</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -5764,12 +5687,8 @@
       <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("anp", null, null, "Angika")</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -5779,12 +5698,8 @@
       <c r="E23" t="s">
         <v>66</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("apa", null, null, "Apache languages")</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -5797,12 +5712,8 @@
       <c r="E24" t="s">
         <v>70</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ara", null, "ar", "Arabic")</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -5812,12 +5723,8 @@
       <c r="E25" t="s">
         <v>73</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("arc", null, null, "Official Aramaic (700-300 BCE); Imperial Aramaic (700-300 BCE)")</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -5830,12 +5737,8 @@
       <c r="E26" t="s">
         <v>77</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("arg", null, "an", "Aragonese")</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -5851,12 +5754,8 @@
       <c r="E27" t="s">
         <v>82</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("arm", "hye", "hy", "Armenian")</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -5866,12 +5765,8 @@
       <c r="E28" t="s">
         <v>85</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("arn", null, null, "Mapudungun; Mapuche")</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -5881,12 +5776,8 @@
       <c r="E29" t="s">
         <v>88</v>
       </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("arp", null, null, "Arapaho")</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -5896,12 +5787,8 @@
       <c r="E30" t="s">
         <v>91</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("art", null, null, "Artificial languages")</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -5911,12 +5798,8 @@
       <c r="E31" t="s">
         <v>94</v>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("arw", null, null, "Arawak")</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -5929,12 +5812,8 @@
       <c r="E32" t="s">
         <v>98</v>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("asm", null, "as", "Assamese")</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -5944,12 +5823,8 @@
       <c r="E33" t="s">
         <v>101</v>
       </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ast", null, null, "Asturian; Bable; Leonese; Asturleonese")</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -5959,12 +5834,8 @@
       <c r="E34" t="s">
         <v>104</v>
       </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ath", null, null, "Athapascan languages")</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -5974,12 +5845,8 @@
       <c r="E35" t="s">
         <v>107</v>
       </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("aus", null, null, "Australian languages")</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -5992,12 +5859,8 @@
       <c r="E36" t="s">
         <v>111</v>
       </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ava", null, "av", "Avaric")</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -6010,12 +5873,8 @@
       <c r="E37" t="s">
         <v>115</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ave", null, "ae", "Avestan")</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -6025,12 +5884,8 @@
       <c r="E38" t="s">
         <v>118</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("awa", null, null, "Awadhi")</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -6043,12 +5898,8 @@
       <c r="E39" t="s">
         <v>122</v>
       </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("aym", null, "ay", "Aymara")</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -6061,12 +5912,8 @@
       <c r="E40" t="s">
         <v>126</v>
       </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("aze", null, "az", "Azerbaijani")</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -6076,12 +5923,8 @@
       <c r="E41" t="s">
         <v>129</v>
       </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bad", null, null, "Banda languages")</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -6091,12 +5934,8 @@
       <c r="E42" t="s">
         <v>132</v>
       </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bai", null, null, "Bamileke languages")</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -6109,12 +5948,8 @@
       <c r="E43" t="s">
         <v>136</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bak", null, "ba", "Bashkir")</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>137</v>
       </c>
@@ -6124,12 +5959,8 @@
       <c r="E44" t="s">
         <v>139</v>
       </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bal", null, null, "Baluchi")</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>140</v>
       </c>
@@ -6142,12 +5973,8 @@
       <c r="E45" t="s">
         <v>143</v>
       </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bam", null, "bm", "Bambara")</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>144</v>
       </c>
@@ -6157,12 +5984,8 @@
       <c r="E46" t="s">
         <v>146</v>
       </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ban", null, null, "Balinese")</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -6178,12 +6001,8 @@
       <c r="E47" t="s">
         <v>151</v>
       </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("baq", "eus", "eu", "Basque")</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -6193,12 +6012,8 @@
       <c r="E48" t="s">
         <v>154</v>
       </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bas", null, null, "Basa")</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -6208,12 +6023,8 @@
       <c r="E49" t="s">
         <v>157</v>
       </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bat", null, null, "Baltic languages")</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -6223,12 +6034,8 @@
       <c r="E50" t="s">
         <v>160</v>
       </c>
-      <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bej", null, null, "Beja; Bedawiyet")</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -6241,12 +6048,8 @@
       <c r="E51" t="s">
         <v>164</v>
       </c>
-      <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bel", null, "be", "Belarusian")</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>165</v>
       </c>
@@ -6256,12 +6059,8 @@
       <c r="E52" t="s">
         <v>167</v>
       </c>
-      <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bem", null, null, "Bemba")</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>168</v>
       </c>
@@ -6274,12 +6073,8 @@
       <c r="E53" t="s">
         <v>171</v>
       </c>
-      <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ben", null, "bn", "Bengali")</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -6289,12 +6084,8 @@
       <c r="E54" t="s">
         <v>174</v>
       </c>
-      <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ber", null, null, "Berber languages")</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>175</v>
       </c>
@@ -6304,12 +6095,8 @@
       <c r="E55" t="s">
         <v>177</v>
       </c>
-      <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bho", null, null, "Bhojpuri")</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -6322,12 +6109,8 @@
       <c r="E56" t="s">
         <v>181</v>
       </c>
-      <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bih", null, "bh", "Bihari languages")</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>182</v>
       </c>
@@ -6337,12 +6120,8 @@
       <c r="E57" t="s">
         <v>184</v>
       </c>
-      <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bik", null, null, "Bikol")</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>185</v>
       </c>
@@ -6352,12 +6131,8 @@
       <c r="E58" t="s">
         <v>187</v>
       </c>
-      <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bin", null, null, "Bini; Edo")</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -6370,12 +6145,8 @@
       <c r="E59" t="s">
         <v>191</v>
       </c>
-      <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bis", null, "bi", "Bislama")</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>192</v>
       </c>
@@ -6385,12 +6156,8 @@
       <c r="E60" t="s">
         <v>194</v>
       </c>
-      <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bla", null, null, "Siksika")</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>195</v>
       </c>
@@ -6400,12 +6167,8 @@
       <c r="E61" t="s">
         <v>197</v>
       </c>
-      <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bnt", null, null, "Bantu languages")</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -6418,12 +6181,8 @@
       <c r="E62" t="s">
         <v>201</v>
       </c>
-      <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bos", null, "bs", "Bosnian")</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>202</v>
       </c>
@@ -6433,12 +6192,8 @@
       <c r="E63" t="s">
         <v>204</v>
       </c>
-      <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bra", null, null, "Braj")</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>205</v>
       </c>
@@ -6451,12 +6206,8 @@
       <c r="E64" t="s">
         <v>208</v>
       </c>
-      <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bre", null, "br", "Breton")</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>209</v>
       </c>
@@ -6466,12 +6217,8 @@
       <c r="E65" t="s">
         <v>211</v>
       </c>
-      <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("btk", null, null, "Batak languages")</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>212</v>
       </c>
@@ -6481,12 +6228,8 @@
       <c r="E66" t="s">
         <v>214</v>
       </c>
-      <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bua", null, null, "Buriat")</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -6496,12 +6239,8 @@
       <c r="E67" t="s">
         <v>217</v>
       </c>
-      <c r="F67" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bug", null, null, "Buginese")</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>218</v>
       </c>
@@ -6514,12 +6253,8 @@
       <c r="E68" t="s">
         <v>221</v>
       </c>
-      <c r="F68" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bul", null, "bg", "Bulgarian")</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>222</v>
       </c>
@@ -6535,12 +6270,8 @@
       <c r="E69" t="s">
         <v>226</v>
       </c>
-      <c r="F69" t="str">
-        <f t="shared" ref="F69:F132" si="1">SUBSTITUTE("    addIso639_2_LanguageDetails(""" &amp; A69 &amp; """, """ &amp; B69 &amp; """, """ &amp; C69 &amp; """, """ &amp; D69 &amp; """)", """""", "null")</f>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("bur", "mya", "my", "Burmese")</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>227</v>
       </c>
@@ -6550,12 +6281,8 @@
       <c r="E70" t="s">
         <v>229</v>
       </c>
-      <c r="F70" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("byn", null, null, "Blin; Bilin")</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>230</v>
       </c>
@@ -6565,12 +6292,8 @@
       <c r="E71" t="s">
         <v>232</v>
       </c>
-      <c r="F71" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cad", null, null, "Caddo")</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>233</v>
       </c>
@@ -6580,12 +6303,8 @@
       <c r="E72" t="s">
         <v>235</v>
       </c>
-      <c r="F72" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cai", null, null, "Central American Indian languages")</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>236</v>
       </c>
@@ -6595,12 +6314,8 @@
       <c r="E73" t="s">
         <v>238</v>
       </c>
-      <c r="F73" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("car", null, null, "Galibi Carib")</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>239</v>
       </c>
@@ -6613,12 +6328,8 @@
       <c r="E74" t="s">
         <v>242</v>
       </c>
-      <c r="F74" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cat", null, "ca", "Catalan; Valencian")</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>243</v>
       </c>
@@ -6628,12 +6339,8 @@
       <c r="E75" t="s">
         <v>245</v>
       </c>
-      <c r="F75" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cau", null, null, "Caucasian languages")</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>246</v>
       </c>
@@ -6643,12 +6350,8 @@
       <c r="E76" t="s">
         <v>248</v>
       </c>
-      <c r="F76" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ceb", null, null, "Cebuano")</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>249</v>
       </c>
@@ -6658,12 +6361,8 @@
       <c r="E77" t="s">
         <v>251</v>
       </c>
-      <c r="F77" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cel", null, null, "Celtic languages")</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>252</v>
       </c>
@@ -6676,12 +6375,8 @@
       <c r="E78" t="s">
         <v>255</v>
       </c>
-      <c r="F78" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cha", null, "ch", "Chamorro")</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>256</v>
       </c>
@@ -6691,12 +6386,8 @@
       <c r="E79" t="s">
         <v>258</v>
       </c>
-      <c r="F79" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("chb", null, null, "Chibcha")</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>259</v>
       </c>
@@ -6709,12 +6400,8 @@
       <c r="E80" t="s">
         <v>262</v>
       </c>
-      <c r="F80" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("che", null, "ce", "Chechen")</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>263</v>
       </c>
@@ -6724,12 +6411,8 @@
       <c r="E81" t="s">
         <v>265</v>
       </c>
-      <c r="F81" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("chg", null, null, "Chagatai")</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>266</v>
       </c>
@@ -6745,12 +6428,8 @@
       <c r="E82" t="s">
         <v>270</v>
       </c>
-      <c r="F82" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("chi", "zho", "zh", "Chinese")</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>271</v>
       </c>
@@ -6760,12 +6439,8 @@
       <c r="E83" t="s">
         <v>273</v>
       </c>
-      <c r="F83" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("chk", null, null, "Chuukese")</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>274</v>
       </c>
@@ -6775,12 +6450,8 @@
       <c r="E84" t="s">
         <v>276</v>
       </c>
-      <c r="F84" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("chm", null, null, "Mari")</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>277</v>
       </c>
@@ -6790,12 +6461,8 @@
       <c r="E85" t="s">
         <v>279</v>
       </c>
-      <c r="F85" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("chn", null, null, "Chinook jargon")</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>280</v>
       </c>
@@ -6805,12 +6472,8 @@
       <c r="E86" t="s">
         <v>282</v>
       </c>
-      <c r="F86" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cho", null, null, "Choctaw")</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>283</v>
       </c>
@@ -6820,12 +6483,8 @@
       <c r="E87" t="s">
         <v>285</v>
       </c>
-      <c r="F87" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("chp", null, null, "Chipewyan; Dene Suline")</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>286</v>
       </c>
@@ -6835,12 +6494,8 @@
       <c r="E88" t="s">
         <v>288</v>
       </c>
-      <c r="F88" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("chr", null, null, "Cherokee")</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>289</v>
       </c>
@@ -6853,12 +6508,8 @@
       <c r="E89" t="s">
         <v>292</v>
       </c>
-      <c r="F89" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("chu", null, "cu", "Church Slavic; Old Slavonic; Church Slavonic; Old Bulgarian; Old Church Slavonic")</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>293</v>
       </c>
@@ -6871,12 +6522,8 @@
       <c r="E90" t="s">
         <v>296</v>
       </c>
-      <c r="F90" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("chv", null, "cv", "Chuvash")</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>297</v>
       </c>
@@ -6886,12 +6533,8 @@
       <c r="E91" t="s">
         <v>299</v>
       </c>
-      <c r="F91" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("chy", null, null, "Cheyenne")</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>300</v>
       </c>
@@ -6901,12 +6544,8 @@
       <c r="E92" t="s">
         <v>302</v>
       </c>
-      <c r="F92" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cmc", null, null, "Chamic languages")</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>303</v>
       </c>
@@ -6916,12 +6555,8 @@
       <c r="E93" t="s">
         <v>305</v>
       </c>
-      <c r="F93" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cnr", null, null, "Montenegrin")</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>306</v>
       </c>
@@ -6931,12 +6566,8 @@
       <c r="E94" t="s">
         <v>308</v>
       </c>
-      <c r="F94" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cop", null, null, "Coptic")</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>309</v>
       </c>
@@ -6949,12 +6580,8 @@
       <c r="E95" t="s">
         <v>312</v>
       </c>
-      <c r="F95" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cor", null, "kw", "Cornish")</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>313</v>
       </c>
@@ -6967,12 +6594,8 @@
       <c r="E96" t="s">
         <v>316</v>
       </c>
-      <c r="F96" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cos", null, "co", "Corsican")</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>317</v>
       </c>
@@ -6982,12 +6605,8 @@
       <c r="E97" t="s">
         <v>319</v>
       </c>
-      <c r="F97" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cpe", null, null, "Creoles and pidgins, English based")</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>320</v>
       </c>
@@ -6997,12 +6616,8 @@
       <c r="E98" t="s">
         <v>322</v>
       </c>
-      <c r="F98" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cpf", null, null, "Creoles and pidgins, French-based")</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>323</v>
       </c>
@@ -7012,12 +6627,8 @@
       <c r="E99" t="s">
         <v>325</v>
       </c>
-      <c r="F99" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cpp", null, null, "Creoles and pidgins, Portuguese-based")</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>326</v>
       </c>
@@ -7030,12 +6641,8 @@
       <c r="E100" t="s">
         <v>329</v>
       </c>
-      <c r="F100" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cre", null, "cr", "Cree")</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>330</v>
       </c>
@@ -7045,12 +6652,8 @@
       <c r="E101" t="s">
         <v>332</v>
       </c>
-      <c r="F101" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("crh", null, null, "Crimean Tatar; Crimean Turkish")</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>333</v>
       </c>
@@ -7060,12 +6663,8 @@
       <c r="E102" t="s">
         <v>335</v>
       </c>
-      <c r="F102" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("crp", null, null, "Creoles and pidgins")</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>336</v>
       </c>
@@ -7075,12 +6674,8 @@
       <c r="E103" t="s">
         <v>338</v>
       </c>
-      <c r="F103" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("csb", null, null, "Kashubian")</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>339</v>
       </c>
@@ -7090,12 +6685,8 @@
       <c r="E104" t="s">
         <v>341</v>
       </c>
-      <c r="F104" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cus", null, null, "Cushitic languages")</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>342</v>
       </c>
@@ -7111,12 +6702,8 @@
       <c r="E105" t="s">
         <v>346</v>
       </c>
-      <c r="F105" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("cze", "ces", "cs", "Czech")</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>347</v>
       </c>
@@ -7126,12 +6713,8 @@
       <c r="E106" t="s">
         <v>349</v>
       </c>
-      <c r="F106" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("dak", null, null, "Dakota")</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>350</v>
       </c>
@@ -7144,12 +6727,8 @@
       <c r="E107" t="s">
         <v>353</v>
       </c>
-      <c r="F107" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("dan", null, "da", "Danish")</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>354</v>
       </c>
@@ -7159,12 +6738,8 @@
       <c r="E108" t="s">
         <v>356</v>
       </c>
-      <c r="F108" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("dar", null, null, "Dargwa")</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>357</v>
       </c>
@@ -7174,12 +6749,8 @@
       <c r="E109" t="s">
         <v>359</v>
       </c>
-      <c r="F109" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("day", null, null, "Land Dayak languages")</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>360</v>
       </c>
@@ -7189,12 +6760,8 @@
       <c r="E110" t="s">
         <v>362</v>
       </c>
-      <c r="F110" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("del", null, null, "Delaware")</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>363</v>
       </c>
@@ -7204,12 +6771,8 @@
       <c r="E111" t="s">
         <v>365</v>
       </c>
-      <c r="F111" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("den", null, null, "Slave (Athapascan)")</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>366</v>
       </c>
@@ -7219,12 +6782,8 @@
       <c r="E112" t="s">
         <v>368</v>
       </c>
-      <c r="F112" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("dgr", null, null, "Dogrib")</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>369</v>
       </c>
@@ -7234,12 +6793,8 @@
       <c r="E113" t="s">
         <v>371</v>
       </c>
-      <c r="F113" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("din", null, null, "Dinka")</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>372</v>
       </c>
@@ -7252,12 +6807,8 @@
       <c r="E114" t="s">
         <v>375</v>
       </c>
-      <c r="F114" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("div", null, "dv", "Divehi; Dhivehi; Maldivian")</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>376</v>
       </c>
@@ -7267,12 +6818,8 @@
       <c r="E115" t="s">
         <v>378</v>
       </c>
-      <c r="F115" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("doi", null, null, "Dogri")</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>379</v>
       </c>
@@ -7282,12 +6829,8 @@
       <c r="E116" t="s">
         <v>381</v>
       </c>
-      <c r="F116" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("dra", null, null, "Dravidian languages")</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>382</v>
       </c>
@@ -7297,12 +6840,8 @@
       <c r="E117" t="s">
         <v>384</v>
       </c>
-      <c r="F117" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("dsb", null, null, "Lower Sorbian")</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>385</v>
       </c>
@@ -7312,12 +6851,8 @@
       <c r="E118" t="s">
         <v>387</v>
       </c>
-      <c r="F118" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("dua", null, null, "Duala")</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>388</v>
       </c>
@@ -7327,12 +6862,8 @@
       <c r="E119" t="s">
         <v>390</v>
       </c>
-      <c r="F119" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("dum", null, null, "Dutch, Middle (ca.1050-1350)")</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>391</v>
       </c>
@@ -7348,12 +6879,8 @@
       <c r="E120" t="s">
         <v>395</v>
       </c>
-      <c r="F120" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("dut", "nld", "nl", "Dutch; Flemish")</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>396</v>
       </c>
@@ -7363,12 +6890,8 @@
       <c r="E121" t="s">
         <v>398</v>
       </c>
-      <c r="F121" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("dyu", null, null, "Dyula")</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>399</v>
       </c>
@@ -7381,12 +6904,8 @@
       <c r="E122" t="s">
         <v>402</v>
       </c>
-      <c r="F122" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("dzo", null, "dz", "Dzongkha")</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>403</v>
       </c>
@@ -7396,12 +6915,8 @@
       <c r="E123" t="s">
         <v>405</v>
       </c>
-      <c r="F123" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("efi", null, null, "Efik")</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>406</v>
       </c>
@@ -7411,12 +6926,8 @@
       <c r="E124" t="s">
         <v>408</v>
       </c>
-      <c r="F124" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("egy", null, null, "Egyptian (Ancient)")</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>409</v>
       </c>
@@ -7426,12 +6937,8 @@
       <c r="E125" t="s">
         <v>411</v>
       </c>
-      <c r="F125" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("eka", null, null, "Ekajuk")</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>412</v>
       </c>
@@ -7441,12 +6948,8 @@
       <c r="E126" t="s">
         <v>414</v>
       </c>
-      <c r="F126" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("elx", null, null, "Elamite")</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>415</v>
       </c>
@@ -7459,12 +6962,8 @@
       <c r="E127" t="s">
         <v>418</v>
       </c>
-      <c r="F127" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("eng", null, "en", "English")</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>419</v>
       </c>
@@ -7474,12 +6973,8 @@
       <c r="E128" t="s">
         <v>421</v>
       </c>
-      <c r="F128" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("enm", null, null, "English, Middle (1100-1500)")</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>422</v>
       </c>
@@ -7492,12 +6987,8 @@
       <c r="E129" t="s">
         <v>425</v>
       </c>
-      <c r="F129" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("epo", null, "eo", "Esperanto")</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>426</v>
       </c>
@@ -7510,12 +7001,8 @@
       <c r="E130" t="s">
         <v>429</v>
       </c>
-      <c r="F130" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("est", null, "et", "Estonian")</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>430</v>
       </c>
@@ -7528,12 +7015,8 @@
       <c r="E131" t="s">
         <v>433</v>
       </c>
-      <c r="F131" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ewe", null, "ee", "Ewe")</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>434</v>
       </c>
@@ -7543,12 +7026,8 @@
       <c r="E132" t="s">
         <v>436</v>
       </c>
-      <c r="F132" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ewo", null, null, "Ewondo")</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>437</v>
       </c>
@@ -7558,12 +7037,8 @@
       <c r="E133" t="s">
         <v>439</v>
       </c>
-      <c r="F133" t="str">
-        <f t="shared" ref="F133:F196" si="2">SUBSTITUTE("    addIso639_2_LanguageDetails(""" &amp; A133 &amp; """, """ &amp; B133 &amp; """, """ &amp; C133 &amp; """, """ &amp; D133 &amp; """)", """""", "null")</f>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("fan", null, null, "Fang")</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>440</v>
       </c>
@@ -7576,12 +7051,8 @@
       <c r="E134" t="s">
         <v>443</v>
       </c>
-      <c r="F134" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("fao", null, "fo", "Faroese")</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>444</v>
       </c>
@@ -7591,12 +7062,8 @@
       <c r="E135" t="s">
         <v>446</v>
       </c>
-      <c r="F135" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("fat", null, null, "Fanti")</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>447</v>
       </c>
@@ -7609,12 +7076,8 @@
       <c r="E136" t="s">
         <v>450</v>
       </c>
-      <c r="F136" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("fij", null, "fj", "Fijian")</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>451</v>
       </c>
@@ -7624,12 +7087,8 @@
       <c r="E137" t="s">
         <v>453</v>
       </c>
-      <c r="F137" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("fil", null, null, "Filipino; Pilipino")</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>454</v>
       </c>
@@ -7642,12 +7101,8 @@
       <c r="E138" t="s">
         <v>457</v>
       </c>
-      <c r="F138" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("fin", null, "fi", "Finnish")</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>458</v>
       </c>
@@ -7657,12 +7112,8 @@
       <c r="E139" t="s">
         <v>460</v>
       </c>
-      <c r="F139" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("fiu", null, null, "Finno-Ugrian languages")</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>461</v>
       </c>
@@ -7672,12 +7123,8 @@
       <c r="E140" t="s">
         <v>461</v>
       </c>
-      <c r="F140" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("fon", null, null, "Fon")</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>463</v>
       </c>
@@ -7693,12 +7140,8 @@
       <c r="E141" t="s">
         <v>467</v>
       </c>
-      <c r="F141" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("fre", "fra", "fr", "French")</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>468</v>
       </c>
@@ -7708,12 +7151,8 @@
       <c r="E142" t="s">
         <v>470</v>
       </c>
-      <c r="F142" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("frm", null, null, "French, Middle (ca.1400-1600)")</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>471</v>
       </c>
@@ -7723,12 +7162,8 @@
       <c r="E143" t="s">
         <v>473</v>
       </c>
-      <c r="F143" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("fro", null, null, "French, Old (842-ca.1400)")</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>474</v>
       </c>
@@ -7738,12 +7173,8 @@
       <c r="E144" t="s">
         <v>476</v>
       </c>
-      <c r="F144" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("frr", null, null, "Northern Frisian")</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>477</v>
       </c>
@@ -7753,12 +7184,8 @@
       <c r="E145" t="s">
         <v>479</v>
       </c>
-      <c r="F145" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("frs", null, null, "Eastern Frisian")</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>480</v>
       </c>
@@ -7771,12 +7198,8 @@
       <c r="E146" t="s">
         <v>483</v>
       </c>
-      <c r="F146" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("fry", null, "fy", "Western Frisian")</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>484</v>
       </c>
@@ -7789,12 +7212,8 @@
       <c r="E147" t="s">
         <v>487</v>
       </c>
-      <c r="F147" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ful", null, "ff", "Fulah")</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>488</v>
       </c>
@@ -7804,12 +7223,8 @@
       <c r="E148" t="s">
         <v>490</v>
       </c>
-      <c r="F148" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("fur", null, null, "Friulian")</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>491</v>
       </c>
@@ -7819,12 +7234,8 @@
       <c r="E149" t="s">
         <v>493</v>
       </c>
-      <c r="F149" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gaa", null, null, "Ga")</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>494</v>
       </c>
@@ -7834,12 +7245,8 @@
       <c r="E150" t="s">
         <v>496</v>
       </c>
-      <c r="F150" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gay", null, null, "Gayo")</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>497</v>
       </c>
@@ -7849,12 +7256,8 @@
       <c r="E151" t="s">
         <v>499</v>
       </c>
-      <c r="F151" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gba", null, null, "Gbaya")</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>500</v>
       </c>
@@ -7864,12 +7267,8 @@
       <c r="E152" t="s">
         <v>502</v>
       </c>
-      <c r="F152" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gem", null, null, "Germanic languages")</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>503</v>
       </c>
@@ -7885,12 +7284,8 @@
       <c r="E153" t="s">
         <v>507</v>
       </c>
-      <c r="F153" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("geo", "kat", "ka", "Georgian")</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>508</v>
       </c>
@@ -7906,12 +7301,8 @@
       <c r="E154" t="s">
         <v>512</v>
       </c>
-      <c r="F154" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ger", "deu", "de", "German")</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>513</v>
       </c>
@@ -7921,12 +7312,8 @@
       <c r="E155" t="s">
         <v>515</v>
       </c>
-      <c r="F155" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gez", null, null, "Geez")</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>516</v>
       </c>
@@ -7936,12 +7323,8 @@
       <c r="E156" t="s">
         <v>518</v>
       </c>
-      <c r="F156" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gil", null, null, "Gilbertese")</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>519</v>
       </c>
@@ -7954,12 +7337,8 @@
       <c r="E157" t="s">
         <v>522</v>
       </c>
-      <c r="F157" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gla", null, "gd", "Gaelic; Scottish Gaelic")</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>523</v>
       </c>
@@ -7972,12 +7351,8 @@
       <c r="E158" t="s">
         <v>525</v>
       </c>
-      <c r="F158" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gle", null, "ga", "Irish")</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>526</v>
       </c>
@@ -7990,12 +7365,8 @@
       <c r="E159" t="s">
         <v>529</v>
       </c>
-      <c r="F159" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("glg", null, "gl", "Galician")</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>530</v>
       </c>
@@ -8008,12 +7379,8 @@
       <c r="E160" t="s">
         <v>533</v>
       </c>
-      <c r="F160" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("glv", null, "gv", "Manx")</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>534</v>
       </c>
@@ -8023,12 +7390,8 @@
       <c r="E161" t="s">
         <v>536</v>
       </c>
-      <c r="F161" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gmh", null, null, "German, Middle High (ca.1050-1500)")</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>537</v>
       </c>
@@ -8038,12 +7401,8 @@
       <c r="E162" t="s">
         <v>539</v>
       </c>
-      <c r="F162" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("goh", null, null, "German, Old High (ca.750-1050)")</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>540</v>
       </c>
@@ -8053,12 +7412,8 @@
       <c r="E163" t="s">
         <v>542</v>
       </c>
-      <c r="F163" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gon", null, null, "Gondi")</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>543</v>
       </c>
@@ -8068,12 +7423,8 @@
       <c r="E164" t="s">
         <v>545</v>
       </c>
-      <c r="F164" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gor", null, null, "Gorontalo")</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>546</v>
       </c>
@@ -8083,12 +7434,8 @@
       <c r="E165" t="s">
         <v>548</v>
       </c>
-      <c r="F165" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("got", null, null, "Gothic")</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>549</v>
       </c>
@@ -8098,12 +7445,8 @@
       <c r="E166" t="s">
         <v>551</v>
       </c>
-      <c r="F166" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("grb", null, null, "Grebo")</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>552</v>
       </c>
@@ -8113,12 +7456,8 @@
       <c r="E167" t="s">
         <v>554</v>
       </c>
-      <c r="F167" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("grc", null, null, "Greek, Ancient (to 1453)")</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>555</v>
       </c>
@@ -8134,12 +7473,8 @@
       <c r="E168" t="s">
         <v>559</v>
       </c>
-      <c r="F168" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gre", "ell", "el", "Greek, Modern (1453-)")</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>560</v>
       </c>
@@ -8152,12 +7487,8 @@
       <c r="E169" t="s">
         <v>563</v>
       </c>
-      <c r="F169" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("grn", null, "gn", "Guarani")</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>564</v>
       </c>
@@ -8167,12 +7498,8 @@
       <c r="E170" t="s">
         <v>566</v>
       </c>
-      <c r="F170" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gsw", null, null, "Swiss German; Alemannic; Alsatian")</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>567</v>
       </c>
@@ -8185,12 +7512,8 @@
       <c r="E171" t="s">
         <v>570</v>
       </c>
-      <c r="F171" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("guj", null, "gu", "Gujarati")</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>571</v>
       </c>
@@ -8200,12 +7523,8 @@
       <c r="E172" t="s">
         <v>573</v>
       </c>
-      <c r="F172" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("gwi", null, null, "Gwich'in")</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>574</v>
       </c>
@@ -8215,12 +7534,8 @@
       <c r="E173" t="s">
         <v>576</v>
       </c>
-      <c r="F173" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("hai", null, null, "Haida")</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>577</v>
       </c>
@@ -8233,12 +7548,8 @@
       <c r="E174" t="s">
         <v>580</v>
       </c>
-      <c r="F174" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("hat", null, "ht", "Haitian; Haitian Creole")</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>581</v>
       </c>
@@ -8251,12 +7562,8 @@
       <c r="E175" t="s">
         <v>584</v>
       </c>
-      <c r="F175" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("hau", null, "ha", "Hausa")</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>585</v>
       </c>
@@ -8266,12 +7573,8 @@
       <c r="E176" t="s">
         <v>587</v>
       </c>
-      <c r="F176" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("haw", null, null, "Hawaiian")</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>588</v>
       </c>
@@ -8284,12 +7587,8 @@
       <c r="E177" t="s">
         <v>591</v>
       </c>
-      <c r="F177" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("heb", null, "he", "Hebrew")</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>592</v>
       </c>
@@ -8302,12 +7601,8 @@
       <c r="E178" t="s">
         <v>595</v>
       </c>
-      <c r="F178" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("her", null, "hz", "Herero")</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>596</v>
       </c>
@@ -8317,12 +7612,8 @@
       <c r="E179" t="s">
         <v>598</v>
       </c>
-      <c r="F179" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("hil", null, null, "Hiligaynon")</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>599</v>
       </c>
@@ -8332,12 +7623,8 @@
       <c r="E180" t="s">
         <v>601</v>
       </c>
-      <c r="F180" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("him", null, null, "Himachali languages; Western Pahari languages")</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>602</v>
       </c>
@@ -8350,12 +7637,8 @@
       <c r="E181" t="s">
         <v>605</v>
       </c>
-      <c r="F181" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("hin", null, "hi", "Hindi")</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>606</v>
       </c>
@@ -8365,12 +7648,8 @@
       <c r="E182" t="s">
         <v>608</v>
       </c>
-      <c r="F182" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("hit", null, null, "Hittite")</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>609</v>
       </c>
@@ -8380,12 +7659,8 @@
       <c r="E183" t="s">
         <v>611</v>
       </c>
-      <c r="F183" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("hmn", null, null, "Hmong; Mong")</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>612</v>
       </c>
@@ -8398,12 +7673,8 @@
       <c r="E184" t="s">
         <v>615</v>
       </c>
-      <c r="F184" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("hmo", null, "ho", "Hiri Motu")</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>616</v>
       </c>
@@ -8416,12 +7687,8 @@
       <c r="E185" t="s">
         <v>619</v>
       </c>
-      <c r="F185" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("hrv", null, "hr", "Croatian")</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>620</v>
       </c>
@@ -8431,12 +7698,8 @@
       <c r="E186" t="s">
         <v>622</v>
       </c>
-      <c r="F186" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("hsb", null, null, "Upper Sorbian")</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>623</v>
       </c>
@@ -8449,12 +7712,8 @@
       <c r="E187" t="s">
         <v>626</v>
       </c>
-      <c r="F187" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("hun", null, "hu", "Hungarian")</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>627</v>
       </c>
@@ -8464,12 +7723,8 @@
       <c r="E188" t="s">
         <v>629</v>
       </c>
-      <c r="F188" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("hup", null, null, "Hupa")</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>630</v>
       </c>
@@ -8479,12 +7734,8 @@
       <c r="E189" t="s">
         <v>632</v>
       </c>
-      <c r="F189" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("iba", null, null, "Iban")</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>633</v>
       </c>
@@ -8497,12 +7748,8 @@
       <c r="E190" t="s">
         <v>636</v>
       </c>
-      <c r="F190" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ibo", null, "ig", "Igbo")</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>637</v>
       </c>
@@ -8518,12 +7765,8 @@
       <c r="E191" t="s">
         <v>641</v>
       </c>
-      <c r="F191" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ice", "isl", "is", "Icelandic")</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>642</v>
       </c>
@@ -8536,12 +7779,8 @@
       <c r="E192" t="s">
         <v>642</v>
       </c>
-      <c r="F192" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ido", null, "io", "Ido")</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>645</v>
       </c>
@@ -8554,12 +7793,8 @@
       <c r="E193" t="s">
         <v>648</v>
       </c>
-      <c r="F193" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("iii", null, "ii", "Sichuan Yi; Nuosu")</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>649</v>
       </c>
@@ -8569,12 +7804,8 @@
       <c r="E194" t="s">
         <v>651</v>
       </c>
-      <c r="F194" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ijo", null, null, "Ijo languages")</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>652</v>
       </c>
@@ -8587,12 +7818,8 @@
       <c r="E195" t="s">
         <v>655</v>
       </c>
-      <c r="F195" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("iku", null, "iu", "Inuktitut")</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>656</v>
       </c>
@@ -8605,12 +7832,8 @@
       <c r="E196" t="s">
         <v>659</v>
       </c>
-      <c r="F196" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ile", null, "ie", "Interlingue; Occidental")</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>660</v>
       </c>
@@ -8620,12 +7843,8 @@
       <c r="E197" t="s">
         <v>662</v>
       </c>
-      <c r="F197" t="str">
-        <f t="shared" ref="F197:F260" si="3">SUBSTITUTE("    addIso639_2_LanguageDetails(""" &amp; A197 &amp; """, """ &amp; B197 &amp; """, """ &amp; C197 &amp; """, """ &amp; D197 &amp; """)", """""", "null")</f>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ilo", null, null, "Iloko")</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>663</v>
       </c>
@@ -8638,12 +7857,8 @@
       <c r="E198" t="s">
         <v>666</v>
       </c>
-      <c r="F198" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ina", null, "ia", "Interlingua (International Auxiliary Language Association)")</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>667</v>
       </c>
@@ -8653,12 +7868,8 @@
       <c r="E199" t="s">
         <v>669</v>
       </c>
-      <c r="F199" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("inc", null, null, "Indic languages")</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>670</v>
       </c>
@@ -8671,12 +7882,8 @@
       <c r="E200" t="s">
         <v>673</v>
       </c>
-      <c r="F200" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ind", null, "id", "Indonesian")</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>674</v>
       </c>
@@ -8686,12 +7893,8 @@
       <c r="E201" t="s">
         <v>676</v>
       </c>
-      <c r="F201" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ine", null, null, "Indo-European languages")</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>677</v>
       </c>
@@ -8701,12 +7904,8 @@
       <c r="E202" t="s">
         <v>679</v>
       </c>
-      <c r="F202" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("inh", null, null, "Ingush")</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>680</v>
       </c>
@@ -8719,12 +7918,8 @@
       <c r="E203" t="s">
         <v>683</v>
       </c>
-      <c r="F203" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ipk", null, "ik", "Inupiaq")</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>684</v>
       </c>
@@ -8734,12 +7929,8 @@
       <c r="E204" t="s">
         <v>686</v>
       </c>
-      <c r="F204" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ira", null, null, "Iranian languages")</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>687</v>
       </c>
@@ -8749,12 +7940,8 @@
       <c r="E205" t="s">
         <v>689</v>
       </c>
-      <c r="F205" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("iro", null, null, "Iroquoian languages")</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>690</v>
       </c>
@@ -8767,12 +7954,8 @@
       <c r="E206" t="s">
         <v>693</v>
       </c>
-      <c r="F206" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ita", null, "it", "Italian")</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>694</v>
       </c>
@@ -8785,12 +7968,8 @@
       <c r="E207" t="s">
         <v>697</v>
       </c>
-      <c r="F207" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("jav", null, "jv", "Javanese")</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>698</v>
       </c>
@@ -8800,12 +7979,8 @@
       <c r="E208" t="s">
         <v>700</v>
       </c>
-      <c r="F208" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("jbo", null, null, "Lojban")</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>701</v>
       </c>
@@ -8818,12 +7993,8 @@
       <c r="E209" t="s">
         <v>704</v>
       </c>
-      <c r="F209" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("jpn", null, "ja", "Japanese")</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>705</v>
       </c>
@@ -8833,12 +8004,8 @@
       <c r="E210" t="s">
         <v>707</v>
       </c>
-      <c r="F210" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("jpr", null, null, "Judeo-Persian")</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>708</v>
       </c>
@@ -8848,12 +8015,8 @@
       <c r="E211" t="s">
         <v>710</v>
       </c>
-      <c r="F211" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("jrb", null, null, "Judeo-Arabic")</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>711</v>
       </c>
@@ -8863,12 +8026,8 @@
       <c r="E212" t="s">
         <v>713</v>
       </c>
-      <c r="F212" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kaa", null, null, "Kara-Kalpak")</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>714</v>
       </c>
@@ -8878,12 +8037,8 @@
       <c r="E213" t="s">
         <v>716</v>
       </c>
-      <c r="F213" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kab", null, null, "Kabyle")</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>717</v>
       </c>
@@ -8893,12 +8048,8 @@
       <c r="E214" t="s">
         <v>719</v>
       </c>
-      <c r="F214" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kac", null, null, "Kachin; Jingpho")</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>720</v>
       </c>
@@ -8911,12 +8062,8 @@
       <c r="E215" t="s">
         <v>723</v>
       </c>
-      <c r="F215" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kal", null, "kl", "Kalaallisut; Greenlandic")</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>724</v>
       </c>
@@ -8926,12 +8073,8 @@
       <c r="E216" t="s">
         <v>726</v>
       </c>
-      <c r="F216" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kam", null, null, "Kamba")</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>727</v>
       </c>
@@ -8944,12 +8087,8 @@
       <c r="E217" t="s">
         <v>730</v>
       </c>
-      <c r="F217" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kan", null, "kn", "Kannada")</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>731</v>
       </c>
@@ -8959,12 +8098,8 @@
       <c r="E218" t="s">
         <v>733</v>
       </c>
-      <c r="F218" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kar", null, null, "Karen languages")</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>734</v>
       </c>
@@ -8977,12 +8112,8 @@
       <c r="E219" t="s">
         <v>737</v>
       </c>
-      <c r="F219" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kas", null, "ks", "Kashmiri")</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>738</v>
       </c>
@@ -8995,12 +8126,8 @@
       <c r="E220" t="s">
         <v>741</v>
       </c>
-      <c r="F220" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kau", null, "kr", "Kanuri")</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>742</v>
       </c>
@@ -9010,12 +8137,8 @@
       <c r="E221" t="s">
         <v>744</v>
       </c>
-      <c r="F221" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kaw", null, null, "Kawi")</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>745</v>
       </c>
@@ -9028,12 +8151,8 @@
       <c r="E222" t="s">
         <v>748</v>
       </c>
-      <c r="F222" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kaz", null, "kk", "Kazakh")</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>749</v>
       </c>
@@ -9043,12 +8162,8 @@
       <c r="E223" t="s">
         <v>751</v>
       </c>
-      <c r="F223" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kbd", null, null, "Kabardian")</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>752</v>
       </c>
@@ -9058,12 +8173,8 @@
       <c r="E224" t="s">
         <v>754</v>
       </c>
-      <c r="F224" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kha", null, null, "Khasi")</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>755</v>
       </c>
@@ -9073,12 +8184,8 @@
       <c r="E225" t="s">
         <v>757</v>
       </c>
-      <c r="F225" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("khi", null, null, "Khoisan languages")</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>758</v>
       </c>
@@ -9091,12 +8198,8 @@
       <c r="E226" t="s">
         <v>761</v>
       </c>
-      <c r="F226" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("khm", null, "km", "Central Khmer")</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>762</v>
       </c>
@@ -9106,12 +8209,8 @@
       <c r="E227" t="s">
         <v>764</v>
       </c>
-      <c r="F227" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kho", null, null, "Khotanese; Sakan")</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>765</v>
       </c>
@@ -9124,12 +8223,8 @@
       <c r="E228" t="s">
         <v>768</v>
       </c>
-      <c r="F228" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kik", null, "ki", "Kikuyu; Gikuyu")</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>769</v>
       </c>
@@ -9142,12 +8237,8 @@
       <c r="E229" t="s">
         <v>772</v>
       </c>
-      <c r="F229" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kin", null, "rw", "Kinyarwanda")</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>773</v>
       </c>
@@ -9160,12 +8251,8 @@
       <c r="E230" t="s">
         <v>776</v>
       </c>
-      <c r="F230" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kir", null, "ky", "Kirghiz; Kyrgyz")</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>777</v>
       </c>
@@ -9175,12 +8262,8 @@
       <c r="E231" t="s">
         <v>779</v>
       </c>
-      <c r="F231" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kmb", null, null, "Kimbundu")</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>780</v>
       </c>
@@ -9190,12 +8273,8 @@
       <c r="E232" t="s">
         <v>782</v>
       </c>
-      <c r="F232" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kok", null, null, "Konkani")</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>783</v>
       </c>
@@ -9208,12 +8287,8 @@
       <c r="E233" t="s">
         <v>783</v>
       </c>
-      <c r="F233" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kom", null, "kv", "Komi")</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>786</v>
       </c>
@@ -9226,12 +8301,8 @@
       <c r="E234" t="s">
         <v>789</v>
       </c>
-      <c r="F234" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kon", null, "kg", "Kongo")</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>790</v>
       </c>
@@ -9244,12 +8315,8 @@
       <c r="E235" t="s">
         <v>793</v>
       </c>
-      <c r="F235" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kor", null, "ko", "Korean")</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>794</v>
       </c>
@@ -9259,12 +8326,8 @@
       <c r="E236" t="s">
         <v>796</v>
       </c>
-      <c r="F236" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kos", null, null, "Kosraean")</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>797</v>
       </c>
@@ -9274,12 +8337,8 @@
       <c r="E237" t="s">
         <v>799</v>
       </c>
-      <c r="F237" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kpe", null, null, "Kpelle")</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>800</v>
       </c>
@@ -9289,12 +8348,8 @@
       <c r="E238" t="s">
         <v>802</v>
       </c>
-      <c r="F238" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("krc", null, null, "Karachay-Balkar")</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>803</v>
       </c>
@@ -9304,12 +8359,8 @@
       <c r="E239" t="s">
         <v>805</v>
       </c>
-      <c r="F239" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("krl", null, null, "Karelian")</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>806</v>
       </c>
@@ -9319,12 +8370,8 @@
       <c r="E240" t="s">
         <v>808</v>
       </c>
-      <c r="F240" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kro", null, null, "Kru languages")</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>809</v>
       </c>
@@ -9334,12 +8381,8 @@
       <c r="E241" t="s">
         <v>811</v>
       </c>
-      <c r="F241" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kru", null, null, "Kurukh")</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>812</v>
       </c>
@@ -9352,12 +8395,8 @@
       <c r="E242" t="s">
         <v>815</v>
       </c>
-      <c r="F242" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kua", null, "kj", "Kuanyama; Kwanyama")</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>816</v>
       </c>
@@ -9367,12 +8406,8 @@
       <c r="E243" t="s">
         <v>818</v>
       </c>
-      <c r="F243" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kum", null, null, "Kumyk")</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>819</v>
       </c>
@@ -9385,12 +8420,8 @@
       <c r="E244" t="s">
         <v>822</v>
       </c>
-      <c r="F244" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kur", null, "ku", "Kurdish")</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>823</v>
       </c>
@@ -9400,12 +8431,8 @@
       <c r="E245" t="s">
         <v>825</v>
       </c>
-      <c r="F245" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("kut", null, null, "Kutenai")</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>826</v>
       </c>
@@ -9415,12 +8442,8 @@
       <c r="E246" t="s">
         <v>828</v>
       </c>
-      <c r="F246" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lad", null, null, "Ladino")</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>829</v>
       </c>
@@ -9430,12 +8453,8 @@
       <c r="E247" t="s">
         <v>831</v>
       </c>
-      <c r="F247" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lah", null, null, "Lahnda")</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>832</v>
       </c>
@@ -9445,12 +8464,8 @@
       <c r="E248" t="s">
         <v>834</v>
       </c>
-      <c r="F248" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lam", null, null, "Lamba")</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>835</v>
       </c>
@@ -9463,12 +8478,8 @@
       <c r="E249" t="s">
         <v>835</v>
       </c>
-      <c r="F249" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lao", null, "lo", "Lao")</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>838</v>
       </c>
@@ -9481,12 +8492,8 @@
       <c r="E250" t="s">
         <v>841</v>
       </c>
-      <c r="F250" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lat", null, "la", "Latin")</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>842</v>
       </c>
@@ -9499,12 +8506,8 @@
       <c r="E251" t="s">
         <v>845</v>
       </c>
-      <c r="F251" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lav", null, "lv", "Latvian")</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>846</v>
       </c>
@@ -9514,12 +8517,8 @@
       <c r="E252" t="s">
         <v>848</v>
       </c>
-      <c r="F252" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lez", null, null, "Lezghian")</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>849</v>
       </c>
@@ -9532,12 +8531,8 @@
       <c r="E253" t="s">
         <v>852</v>
       </c>
-      <c r="F253" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lim", null, "li", "Limburgan; Limburger; Limburgish")</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>853</v>
       </c>
@@ -9550,12 +8545,8 @@
       <c r="E254" t="s">
         <v>856</v>
       </c>
-      <c r="F254" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lin", null, "ln", "Lingala")</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>857</v>
       </c>
@@ -9568,12 +8559,8 @@
       <c r="E255" t="s">
         <v>860</v>
       </c>
-      <c r="F255" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lit", null, "lt", "Lithuanian")</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>861</v>
       </c>
@@ -9583,12 +8570,8 @@
       <c r="E256" t="s">
         <v>863</v>
       </c>
-      <c r="F256" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lol", null, null, "Mongo")</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>864</v>
       </c>
@@ -9598,12 +8581,8 @@
       <c r="E257" t="s">
         <v>866</v>
       </c>
-      <c r="F257" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("loz", null, null, "Lozi")</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>867</v>
       </c>
@@ -9616,12 +8595,8 @@
       <c r="E258" t="s">
         <v>870</v>
       </c>
-      <c r="F258" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ltz", null, "lb", "Luxembourgish; Letzeburgesch")</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>871</v>
       </c>
@@ -9631,12 +8606,8 @@
       <c r="E259" t="s">
         <v>873</v>
       </c>
-      <c r="F259" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lua", null, null, "Luba-Lulua")</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>874</v>
       </c>
@@ -9649,12 +8620,8 @@
       <c r="E260" t="s">
         <v>877</v>
       </c>
-      <c r="F260" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lub", null, "lu", "Luba-Katanga")</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>878</v>
       </c>
@@ -9667,12 +8634,8 @@
       <c r="E261" t="s">
         <v>881</v>
       </c>
-      <c r="F261" t="str">
-        <f t="shared" ref="F261:F324" si="4">SUBSTITUTE("    addIso639_2_LanguageDetails(""" &amp; A261 &amp; """, """ &amp; B261 &amp; """, """ &amp; C261 &amp; """, """ &amp; D261 &amp; """)", """""", "null")</f>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lug", null, "lg", "Ganda")</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>882</v>
       </c>
@@ -9682,12 +8645,8 @@
       <c r="E262" t="s">
         <v>884</v>
       </c>
-      <c r="F262" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lui", null, null, "Luiseno")</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>885</v>
       </c>
@@ -9697,12 +8656,8 @@
       <c r="E263" t="s">
         <v>887</v>
       </c>
-      <c r="F263" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lun", null, null, "Lunda")</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>888</v>
       </c>
@@ -9712,12 +8667,8 @@
       <c r="E264" t="s">
         <v>890</v>
       </c>
-      <c r="F264" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("luo", null, null, "Luo (Kenya and Tanzania)")</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>891</v>
       </c>
@@ -9727,12 +8678,8 @@
       <c r="E265" t="s">
         <v>893</v>
       </c>
-      <c r="F265" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("lus", null, null, "Lushai")</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>894</v>
       </c>
@@ -9748,12 +8695,8 @@
       <c r="E266" t="s">
         <v>898</v>
       </c>
-      <c r="F266" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mac", "mkd", "mk", "Macedonian")</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>899</v>
       </c>
@@ -9763,12 +8706,8 @@
       <c r="E267" t="s">
         <v>901</v>
       </c>
-      <c r="F267" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mad", null, null, "Madurese")</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>902</v>
       </c>
@@ -9778,12 +8717,8 @@
       <c r="E268" t="s">
         <v>904</v>
       </c>
-      <c r="F268" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mag", null, null, "Magahi")</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>905</v>
       </c>
@@ -9796,12 +8731,8 @@
       <c r="E269" t="s">
         <v>908</v>
       </c>
-      <c r="F269" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mah", null, "mh", "Marshallese")</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>909</v>
       </c>
@@ -9811,12 +8742,8 @@
       <c r="E270" t="s">
         <v>911</v>
       </c>
-      <c r="F270" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mai", null, null, "Maithili")</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>912</v>
       </c>
@@ -9826,12 +8753,8 @@
       <c r="E271" t="s">
         <v>914</v>
       </c>
-      <c r="F271" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mak", null, null, "Makasar")</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>915</v>
       </c>
@@ -9844,12 +8767,8 @@
       <c r="E272" t="s">
         <v>918</v>
       </c>
-      <c r="F272" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mal", null, "ml", "Malayalam")</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>919</v>
       </c>
@@ -9859,12 +8778,8 @@
       <c r="E273" t="s">
         <v>921</v>
       </c>
-      <c r="F273" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("man", null, null, "Mandingo")</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>922</v>
       </c>
@@ -9880,12 +8795,8 @@
       <c r="E274" t="s">
         <v>926</v>
       </c>
-      <c r="F274" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mao", "mri", "mi", "Maori")</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>927</v>
       </c>
@@ -9895,12 +8806,8 @@
       <c r="E275" t="s">
         <v>929</v>
       </c>
-      <c r="F275" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("map", null, null, "Austronesian languages")</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>930</v>
       </c>
@@ -9913,12 +8820,8 @@
       <c r="E276" t="s">
         <v>933</v>
       </c>
-      <c r="F276" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mar", null, "mr", "Marathi")</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>934</v>
       </c>
@@ -9928,12 +8831,8 @@
       <c r="E277" t="s">
         <v>936</v>
       </c>
-      <c r="F277" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mas", null, null, "Masai")</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>937</v>
       </c>
@@ -9949,12 +8848,8 @@
       <c r="E278" t="s">
         <v>941</v>
       </c>
-      <c r="F278" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("may", "msa", "ms", "Malay")</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>942</v>
       </c>
@@ -9964,12 +8859,8 @@
       <c r="E279" t="s">
         <v>944</v>
       </c>
-      <c r="F279" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mdf", null, null, "Moksha")</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>945</v>
       </c>
@@ -9979,12 +8870,8 @@
       <c r="E280" t="s">
         <v>947</v>
       </c>
-      <c r="F280" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mdr", null, null, "Mandar")</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>948</v>
       </c>
@@ -9994,12 +8881,8 @@
       <c r="E281" t="s">
         <v>950</v>
       </c>
-      <c r="F281" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("men", null, null, "Mende")</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>951</v>
       </c>
@@ -10009,12 +8892,8 @@
       <c r="E282" t="s">
         <v>953</v>
       </c>
-      <c r="F282" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mga", null, null, "Irish, Middle (900-1200)")</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>954</v>
       </c>
@@ -10024,12 +8903,8 @@
       <c r="E283" t="s">
         <v>956</v>
       </c>
-      <c r="F283" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mic", null, null, "Mi'kmaq; Micmac")</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>957</v>
       </c>
@@ -10039,12 +8914,8 @@
       <c r="E284" t="s">
         <v>959</v>
       </c>
-      <c r="F284" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("min", null, null, "Minangkabau")</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>960</v>
       </c>
@@ -10054,12 +8925,8 @@
       <c r="E285" t="s">
         <v>962</v>
       </c>
-      <c r="F285" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mis", null, null, "Uncoded languages")</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>963</v>
       </c>
@@ -10069,12 +8936,8 @@
       <c r="E286" t="s">
         <v>965</v>
       </c>
-      <c r="F286" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mkh", null, null, "Mon-Khmer languages")</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>966</v>
       </c>
@@ -10087,12 +8950,8 @@
       <c r="E287" t="s">
         <v>969</v>
       </c>
-      <c r="F287" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mlg", null, "mg", "Malagasy")</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>970</v>
       </c>
@@ -10105,12 +8964,8 @@
       <c r="E288" t="s">
         <v>973</v>
       </c>
-      <c r="F288" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mlt", null, "mt", "Maltese")</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>974</v>
       </c>
@@ -10120,12 +8975,8 @@
       <c r="E289" t="s">
         <v>976</v>
       </c>
-      <c r="F289" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mnc", null, null, "Manchu")</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>977</v>
       </c>
@@ -10135,12 +8986,8 @@
       <c r="E290" t="s">
         <v>979</v>
       </c>
-      <c r="F290" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mni", null, null, "Manipuri")</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>980</v>
       </c>
@@ -10150,12 +8997,8 @@
       <c r="E291" t="s">
         <v>982</v>
       </c>
-      <c r="F291" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mno", null, null, "Manobo languages")</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>983</v>
       </c>
@@ -10165,12 +9008,8 @@
       <c r="E292" t="s">
         <v>985</v>
       </c>
-      <c r="F292" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("moh", null, null, "Mohawk")</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>986</v>
       </c>
@@ -10183,12 +9022,8 @@
       <c r="E293" t="s">
         <v>989</v>
       </c>
-      <c r="F293" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mon", null, "mn", "Mongolian")</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>990</v>
       </c>
@@ -10198,12 +9033,8 @@
       <c r="E294" t="s">
         <v>992</v>
       </c>
-      <c r="F294" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mos", null, null, "Mossi")</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>993</v>
       </c>
@@ -10213,12 +9044,8 @@
       <c r="E295" t="s">
         <v>995</v>
       </c>
-      <c r="F295" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mul", null, null, "Multiple languages")</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>996</v>
       </c>
@@ -10228,12 +9055,8 @@
       <c r="E296" t="s">
         <v>998</v>
       </c>
-      <c r="F296" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mun", null, null, "Munda languages")</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>999</v>
       </c>
@@ -10243,12 +9066,8 @@
       <c r="E297" t="s">
         <v>1001</v>
       </c>
-      <c r="F297" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mus", null, null, "Creek")</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1002</v>
       </c>
@@ -10258,12 +9077,8 @@
       <c r="E298" t="s">
         <v>1004</v>
       </c>
-      <c r="F298" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mwl", null, null, "Mirandese")</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1005</v>
       </c>
@@ -10273,12 +9088,8 @@
       <c r="E299" t="s">
         <v>1007</v>
       </c>
-      <c r="F299" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("mwr", null, null, "Marwari")</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1008</v>
       </c>
@@ -10288,12 +9099,8 @@
       <c r="E300" t="s">
         <v>1010</v>
       </c>
-      <c r="F300" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("myn", null, null, "Mayan languages")</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1011</v>
       </c>
@@ -10303,12 +9110,8 @@
       <c r="E301" t="s">
         <v>1013</v>
       </c>
-      <c r="F301" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("myv", null, null, "Erzya")</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1014</v>
       </c>
@@ -10318,12 +9121,8 @@
       <c r="E302" t="s">
         <v>1016</v>
       </c>
-      <c r="F302" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nah", null, null, "Nahuatl languages")</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1017</v>
       </c>
@@ -10333,12 +9132,8 @@
       <c r="E303" t="s">
         <v>1019</v>
       </c>
-      <c r="F303" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nai", null, null, "North American Indian languages")</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1020</v>
       </c>
@@ -10348,12 +9143,8 @@
       <c r="E304" t="s">
         <v>1022</v>
       </c>
-      <c r="F304" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nap", null, null, "Neapolitan")</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1023</v>
       </c>
@@ -10366,12 +9157,8 @@
       <c r="E305" t="s">
         <v>1026</v>
       </c>
-      <c r="F305" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nau", null, "na", "Nauru")</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1027</v>
       </c>
@@ -10384,12 +9171,8 @@
       <c r="E306" t="s">
         <v>1030</v>
       </c>
-      <c r="F306" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nav", null, "nv", "Navajo; Navaho")</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1031</v>
       </c>
@@ -10402,12 +9185,8 @@
       <c r="E307" t="s">
         <v>1034</v>
       </c>
-      <c r="F307" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nbl", null, "nr", "Ndebele, South; South Ndebele")</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1035</v>
       </c>
@@ -10420,12 +9199,8 @@
       <c r="E308" t="s">
         <v>1038</v>
       </c>
-      <c r="F308" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nde", null, "nd", "Ndebele, North; North Ndebele")</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1039</v>
       </c>
@@ -10438,12 +9213,8 @@
       <c r="E309" t="s">
         <v>1042</v>
       </c>
-      <c r="F309" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ndo", null, "ng", "Ndonga")</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1043</v>
       </c>
@@ -10453,12 +9224,8 @@
       <c r="E310" t="s">
         <v>1045</v>
       </c>
-      <c r="F310" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nds", null, null, "Low German; Low Saxon; German, Low; Saxon, Low")</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1046</v>
       </c>
@@ -10471,12 +9238,8 @@
       <c r="E311" t="s">
         <v>1049</v>
       </c>
-      <c r="F311" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nep", null, "ne", "Nepali")</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1050</v>
       </c>
@@ -10486,12 +9249,8 @@
       <c r="E312" t="s">
         <v>1052</v>
       </c>
-      <c r="F312" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("new", null, null, "Nepal Bhasa; Newari")</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1053</v>
       </c>
@@ -10501,12 +9260,8 @@
       <c r="E313" t="s">
         <v>1055</v>
       </c>
-      <c r="F313" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nia", null, null, "Nias")</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1056</v>
       </c>
@@ -10516,12 +9271,8 @@
       <c r="E314" t="s">
         <v>1058</v>
       </c>
-      <c r="F314" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nic", null, null, "Niger-Kordofanian languages")</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1059</v>
       </c>
@@ -10531,12 +9282,8 @@
       <c r="E315" t="s">
         <v>1061</v>
       </c>
-      <c r="F315" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("niu", null, null, "Niuean")</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1062</v>
       </c>
@@ -10549,12 +9296,8 @@
       <c r="E316" t="s">
         <v>1065</v>
       </c>
-      <c r="F316" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nno", null, "nn", "Norwegian Nynorsk; Nynorsk, Norwegian")</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1066</v>
       </c>
@@ -10567,12 +9310,8 @@
       <c r="E317" t="s">
         <v>1069</v>
       </c>
-      <c r="F317" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nob", null, "nb", "Bokmål, Norwegian; Norwegian Bokmål")</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1070</v>
       </c>
@@ -10582,12 +9321,8 @@
       <c r="E318" t="s">
         <v>1072</v>
       </c>
-      <c r="F318" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nog", null, null, "Nogai")</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1073</v>
       </c>
@@ -10597,12 +9332,8 @@
       <c r="E319" t="s">
         <v>1075</v>
       </c>
-      <c r="F319" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("non", null, null, "Norse, Old")</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1076</v>
       </c>
@@ -10615,12 +9346,8 @@
       <c r="E320" t="s">
         <v>1079</v>
       </c>
-      <c r="F320" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nor", null, "no", "Norwegian")</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1080</v>
       </c>
@@ -10630,12 +9357,8 @@
       <c r="E321" t="s">
         <v>1082</v>
       </c>
-      <c r="F321" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nqo", null, null, "N'Ko")</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1083</v>
       </c>
@@ -10645,12 +9368,8 @@
       <c r="E322" t="s">
         <v>1085</v>
       </c>
-      <c r="F322" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nso", null, null, "Pedi; Sepedi; Northern Sotho")</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1086</v>
       </c>
@@ -10660,12 +9379,8 @@
       <c r="E323" t="s">
         <v>1088</v>
       </c>
-      <c r="F323" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nub", null, null, "Nubian languages")</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1089</v>
       </c>
@@ -10675,12 +9390,8 @@
       <c r="E324" t="s">
         <v>1091</v>
       </c>
-      <c r="F324" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nwc", null, null, "Classical Newari; Old Newari; Classical Nepal Bhasa")</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1092</v>
       </c>
@@ -10693,12 +9404,8 @@
       <c r="E325" t="s">
         <v>1095</v>
       </c>
-      <c r="F325" t="str">
-        <f t="shared" ref="F325:F388" si="5">SUBSTITUTE("    addIso639_2_LanguageDetails(""" &amp; A325 &amp; """, """ &amp; B325 &amp; """, """ &amp; C325 &amp; """, """ &amp; D325 &amp; """)", """""", "null")</f>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nya", null, "ny", "Chichewa; Chewa; Nyanja")</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1096</v>
       </c>
@@ -10708,12 +9415,8 @@
       <c r="E326" t="s">
         <v>1098</v>
       </c>
-      <c r="F326" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nym", null, null, "Nyamwezi")</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1099</v>
       </c>
@@ -10723,12 +9426,8 @@
       <c r="E327" t="s">
         <v>1101</v>
       </c>
-      <c r="F327" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nyn", null, null, "Nyankole")</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1102</v>
       </c>
@@ -10738,12 +9437,8 @@
       <c r="E328" t="s">
         <v>1104</v>
       </c>
-      <c r="F328" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nyo", null, null, "Nyoro")</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1105</v>
       </c>
@@ -10753,12 +9448,8 @@
       <c r="E329" t="s">
         <v>1107</v>
       </c>
-      <c r="F329" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("nzi", null, null, "Nzima")</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1108</v>
       </c>
@@ -10771,12 +9462,8 @@
       <c r="E330" t="s">
         <v>1111</v>
       </c>
-      <c r="F330" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("oci", null, "oc", "Occitan (post 1500)")</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1112</v>
       </c>
@@ -10789,12 +9476,8 @@
       <c r="E331" t="s">
         <v>1115</v>
       </c>
-      <c r="F331" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("oji", null, "oj", "Ojibwa")</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1116</v>
       </c>
@@ -10807,12 +9490,8 @@
       <c r="E332" t="s">
         <v>1119</v>
       </c>
-      <c r="F332" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ori", null, "or", "Oriya")</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1120</v>
       </c>
@@ -10825,12 +9504,8 @@
       <c r="E333" t="s">
         <v>1123</v>
       </c>
-      <c r="F333" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("orm", null, "om", "Oromo")</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1124</v>
       </c>
@@ -10840,12 +9515,8 @@
       <c r="E334" t="s">
         <v>1126</v>
       </c>
-      <c r="F334" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("osa", null, null, "Osage")</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1127</v>
       </c>
@@ -10858,12 +9529,8 @@
       <c r="E335" t="s">
         <v>1130</v>
       </c>
-      <c r="F335" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("oss", null, "os", "Ossetian; Ossetic")</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1131</v>
       </c>
@@ -10873,12 +9540,8 @@
       <c r="E336" t="s">
         <v>1133</v>
       </c>
-      <c r="F336" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ota", null, null, "Turkish, Ottoman (1500-1928)")</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1134</v>
       </c>
@@ -10888,12 +9551,8 @@
       <c r="E337" t="s">
         <v>1136</v>
       </c>
-      <c r="F337" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("oto", null, null, "Otomian languages")</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1137</v>
       </c>
@@ -10903,12 +9562,8 @@
       <c r="E338" t="s">
         <v>1139</v>
       </c>
-      <c r="F338" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("paa", null, null, "Papuan languages")</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1140</v>
       </c>
@@ -10918,12 +9573,8 @@
       <c r="E339" t="s">
         <v>1142</v>
       </c>
-      <c r="F339" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("pag", null, null, "Pangasinan")</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1143</v>
       </c>
@@ -10933,12 +9584,8 @@
       <c r="E340" t="s">
         <v>1145</v>
       </c>
-      <c r="F340" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("pal", null, null, "Pahlavi")</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1146</v>
       </c>
@@ -10948,12 +9595,8 @@
       <c r="E341" t="s">
         <v>1148</v>
       </c>
-      <c r="F341" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("pam", null, null, "Pampanga; Kapampangan")</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1149</v>
       </c>
@@ -10966,12 +9609,8 @@
       <c r="E342" t="s">
         <v>1152</v>
       </c>
-      <c r="F342" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("pan", null, "pa", "Panjabi; Punjabi")</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1153</v>
       </c>
@@ -10981,12 +9620,8 @@
       <c r="E343" t="s">
         <v>1155</v>
       </c>
-      <c r="F343" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("pap", null, null, "Papiamento")</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1156</v>
       </c>
@@ -10996,12 +9631,8 @@
       <c r="E344" t="s">
         <v>1158</v>
       </c>
-      <c r="F344" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("pau", null, null, "Palauan")</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1159</v>
       </c>
@@ -11011,12 +9642,8 @@
       <c r="E345" t="s">
         <v>1161</v>
       </c>
-      <c r="F345" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("peo", null, null, "Persian, Old (ca.600-400 B.C.)")</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1162</v>
       </c>
@@ -11032,12 +9659,8 @@
       <c r="E346" t="s">
         <v>1166</v>
       </c>
-      <c r="F346" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("per", "fas", "fa", "Persian")</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1167</v>
       </c>
@@ -11047,12 +9670,8 @@
       <c r="E347" t="s">
         <v>1169</v>
       </c>
-      <c r="F347" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("phi", null, null, "Philippine languages")</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1170</v>
       </c>
@@ -11062,12 +9681,8 @@
       <c r="E348" t="s">
         <v>1172</v>
       </c>
-      <c r="F348" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("phn", null, null, "Phoenician")</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1173</v>
       </c>
@@ -11080,12 +9695,8 @@
       <c r="E349" t="s">
         <v>1176</v>
       </c>
-      <c r="F349" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("pli", null, "pi", "Pali")</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1177</v>
       </c>
@@ -11098,12 +9709,8 @@
       <c r="E350" t="s">
         <v>1180</v>
       </c>
-      <c r="F350" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("pol", null, "pl", "Polish")</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1181</v>
       </c>
@@ -11113,12 +9720,8 @@
       <c r="E351" t="s">
         <v>1183</v>
       </c>
-      <c r="F351" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("pon", null, null, "Pohnpeian")</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1184</v>
       </c>
@@ -11131,12 +9734,8 @@
       <c r="E352" t="s">
         <v>1187</v>
       </c>
-      <c r="F352" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("por", null, "pt", "Portuguese")</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1188</v>
       </c>
@@ -11146,12 +9745,8 @@
       <c r="E353" t="s">
         <v>1190</v>
       </c>
-      <c r="F353" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("pra", null, null, "Prakrit languages")</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1191</v>
       </c>
@@ -11161,12 +9756,8 @@
       <c r="E354" t="s">
         <v>1193</v>
       </c>
-      <c r="F354" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("pro", null, null, "Provençal, Old (to 1500); Occitan, Old (to 1500)")</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1194</v>
       </c>
@@ -11179,12 +9770,8 @@
       <c r="E355" t="s">
         <v>1197</v>
       </c>
-      <c r="F355" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("pus", null, "ps", "Pushto; Pashto")</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1198</v>
       </c>
@@ -11194,12 +9781,8 @@
       <c r="E356" t="s">
         <v>1200</v>
       </c>
-      <c r="F356" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("qaa-qtz", null, null, "Reserved for local use")</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1201</v>
       </c>
@@ -11212,12 +9795,8 @@
       <c r="E357" t="s">
         <v>1204</v>
       </c>
-      <c r="F357" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("que", null, "qu", "Quechua")</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1205</v>
       </c>
@@ -11227,12 +9806,8 @@
       <c r="E358" t="s">
         <v>1207</v>
       </c>
-      <c r="F358" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("raj", null, null, "Rajasthani")</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1208</v>
       </c>
@@ -11242,12 +9817,8 @@
       <c r="E359" t="s">
         <v>1210</v>
       </c>
-      <c r="F359" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("rap", null, null, "Rapanui")</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1211</v>
       </c>
@@ -11257,12 +9828,8 @@
       <c r="E360" t="s">
         <v>1213</v>
       </c>
-      <c r="F360" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("rar", null, null, "Rarotongan; Cook Islands Maori")</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1214</v>
       </c>
@@ -11272,12 +9839,8 @@
       <c r="E361" t="s">
         <v>1216</v>
       </c>
-      <c r="F361" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("roa", null, null, "Romance languages")</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1217</v>
       </c>
@@ -11290,12 +9853,8 @@
       <c r="E362" t="s">
         <v>1220</v>
       </c>
-      <c r="F362" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("roh", null, "rm", "Romansh")</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1221</v>
       </c>
@@ -11305,12 +9864,8 @@
       <c r="E363" t="s">
         <v>1223</v>
       </c>
-      <c r="F363" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("rom", null, null, "Romany")</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1224</v>
       </c>
@@ -11326,12 +9881,8 @@
       <c r="E364" t="s">
         <v>1228</v>
       </c>
-      <c r="F364" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("rum", "ron", "ro", "Romanian; Moldavian; Moldovan")</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1229</v>
       </c>
@@ -11344,12 +9895,8 @@
       <c r="E365" t="s">
         <v>1232</v>
       </c>
-      <c r="F365" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("run", null, "rn", "Rundi")</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1233</v>
       </c>
@@ -11359,12 +9906,8 @@
       <c r="E366" t="s">
         <v>1235</v>
       </c>
-      <c r="F366" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("rup", null, null, "Aromanian; Arumanian; Macedo-Romanian")</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1236</v>
       </c>
@@ -11377,12 +9920,8 @@
       <c r="E367" t="s">
         <v>1239</v>
       </c>
-      <c r="F367" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("rus", null, "ru", "Russian")</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1240</v>
       </c>
@@ -11392,12 +9931,8 @@
       <c r="E368" t="s">
         <v>1242</v>
       </c>
-      <c r="F368" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sad", null, null, "Sandawe")</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1243</v>
       </c>
@@ -11410,12 +9945,8 @@
       <c r="E369" t="s">
         <v>1246</v>
       </c>
-      <c r="F369" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sag", null, "sg", "Sango")</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1247</v>
       </c>
@@ -11425,12 +9956,8 @@
       <c r="E370" t="s">
         <v>1249</v>
       </c>
-      <c r="F370" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sah", null, null, "Yakut")</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1250</v>
       </c>
@@ -11440,12 +9967,8 @@
       <c r="E371" t="s">
         <v>1252</v>
       </c>
-      <c r="F371" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sai", null, null, "South American Indian languages")</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1253</v>
       </c>
@@ -11455,12 +9978,8 @@
       <c r="E372" t="s">
         <v>1255</v>
       </c>
-      <c r="F372" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sal", null, null, "Salishan languages")</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1256</v>
       </c>
@@ -11470,12 +9989,8 @@
       <c r="E373" t="s">
         <v>1258</v>
       </c>
-      <c r="F373" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sam", null, null, "Samaritan Aramaic")</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1259</v>
       </c>
@@ -11488,12 +10003,8 @@
       <c r="E374" t="s">
         <v>1262</v>
       </c>
-      <c r="F374" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("san", null, "sa", "Sanskrit")</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1263</v>
       </c>
@@ -11503,12 +10014,8 @@
       <c r="E375" t="s">
         <v>1265</v>
       </c>
-      <c r="F375" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sas", null, null, "Sasak")</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1266</v>
       </c>
@@ -11518,12 +10025,8 @@
       <c r="E376" t="s">
         <v>1268</v>
       </c>
-      <c r="F376" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sat", null, null, "Santali")</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1269</v>
       </c>
@@ -11533,12 +10036,8 @@
       <c r="E377" t="s">
         <v>1271</v>
       </c>
-      <c r="F377" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("scn", null, null, "Sicilian")</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1272</v>
       </c>
@@ -11548,12 +10047,8 @@
       <c r="E378" t="s">
         <v>1274</v>
       </c>
-      <c r="F378" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sco", null, null, "Scots")</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1275</v>
       </c>
@@ -11563,12 +10058,8 @@
       <c r="E379" t="s">
         <v>1277</v>
       </c>
-      <c r="F379" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sel", null, null, "Selkup")</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1278</v>
       </c>
@@ -11578,12 +10069,8 @@
       <c r="E380" t="s">
         <v>1280</v>
       </c>
-      <c r="F380" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sem", null, null, "Semitic languages")</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1281</v>
       </c>
@@ -11593,12 +10080,8 @@
       <c r="E381" t="s">
         <v>1283</v>
       </c>
-      <c r="F381" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sga", null, null, "Irish, Old (to 900)")</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1284</v>
       </c>
@@ -11608,12 +10091,8 @@
       <c r="E382" t="s">
         <v>1286</v>
       </c>
-      <c r="F382" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sgn", null, null, "Sign Languages")</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1287</v>
       </c>
@@ -11623,12 +10102,8 @@
       <c r="E383" t="s">
         <v>1289</v>
       </c>
-      <c r="F383" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("shn", null, null, "Shan")</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1290</v>
       </c>
@@ -11638,12 +10113,8 @@
       <c r="E384" t="s">
         <v>1292</v>
       </c>
-      <c r="F384" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sid", null, null, "Sidamo")</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1293</v>
       </c>
@@ -11656,12 +10127,8 @@
       <c r="E385" t="s">
         <v>1296</v>
       </c>
-      <c r="F385" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sin", null, "si", "Sinhala; Sinhalese")</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1297</v>
       </c>
@@ -11671,12 +10138,8 @@
       <c r="E386" t="s">
         <v>1299</v>
       </c>
-      <c r="F386" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sio", null, null, "Siouan languages")</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1300</v>
       </c>
@@ -11686,12 +10149,8 @@
       <c r="E387" t="s">
         <v>1302</v>
       </c>
-      <c r="F387" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sit", null, null, "Sino-Tibetan languages")</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1303</v>
       </c>
@@ -11701,12 +10160,8 @@
       <c r="E388" t="s">
         <v>1305</v>
       </c>
-      <c r="F388" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sla", null, null, "Slavic languages")</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1306</v>
       </c>
@@ -11722,12 +10177,8 @@
       <c r="E389" t="s">
         <v>1310</v>
       </c>
-      <c r="F389" t="str">
-        <f t="shared" ref="F389:F452" si="6">SUBSTITUTE("    addIso639_2_LanguageDetails(""" &amp; A389 &amp; """, """ &amp; B389 &amp; """, """ &amp; C389 &amp; """, """ &amp; D389 &amp; """)", """""", "null")</f>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("slo", "slk", "sk", "Slovak")</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1311</v>
       </c>
@@ -11740,12 +10191,8 @@
       <c r="E390" t="s">
         <v>1314</v>
       </c>
-      <c r="F390" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("slv", null, "sl", "Slovenian")</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1315</v>
       </c>
@@ -11755,12 +10202,8 @@
       <c r="E391" t="s">
         <v>1317</v>
       </c>
-      <c r="F391" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sma", null, null, "Southern Sami")</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1318</v>
       </c>
@@ -11773,12 +10216,8 @@
       <c r="E392" t="s">
         <v>1321</v>
       </c>
-      <c r="F392" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sme", null, "se", "Northern Sami")</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1322</v>
       </c>
@@ -11788,12 +10227,8 @@
       <c r="E393" t="s">
         <v>1324</v>
       </c>
-      <c r="F393" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("smi", null, null, "Sami languages")</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1325</v>
       </c>
@@ -11803,12 +10238,8 @@
       <c r="E394" t="s">
         <v>1327</v>
       </c>
-      <c r="F394" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("smj", null, null, "Lule Sami")</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1328</v>
       </c>
@@ -11818,12 +10249,8 @@
       <c r="E395" t="s">
         <v>1330</v>
       </c>
-      <c r="F395" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("smn", null, null, "Inari Sami")</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1331</v>
       </c>
@@ -11836,12 +10263,8 @@
       <c r="E396" t="s">
         <v>1334</v>
       </c>
-      <c r="F396" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("smo", null, "sm", "Samoan")</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1335</v>
       </c>
@@ -11851,12 +10274,8 @@
       <c r="E397" t="s">
         <v>1337</v>
       </c>
-      <c r="F397" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sms", null, null, "Skolt Sami")</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1338</v>
       </c>
@@ -11869,12 +10288,8 @@
       <c r="E398" t="s">
         <v>1341</v>
       </c>
-      <c r="F398" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sna", null, "sn", "Shona")</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1342</v>
       </c>
@@ -11887,12 +10302,8 @@
       <c r="E399" t="s">
         <v>1345</v>
       </c>
-      <c r="F399" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("snd", null, "sd", "Sindhi")</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1346</v>
       </c>
@@ -11902,12 +10313,8 @@
       <c r="E400" t="s">
         <v>1348</v>
       </c>
-      <c r="F400" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("snk", null, null, "Soninke")</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1349</v>
       </c>
@@ -11917,12 +10324,8 @@
       <c r="E401" t="s">
         <v>1351</v>
       </c>
-      <c r="F401" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sog", null, null, "Sogdian")</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1352</v>
       </c>
@@ -11935,12 +10338,8 @@
       <c r="E402" t="s">
         <v>1355</v>
       </c>
-      <c r="F402" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("som", null, "so", "Somali")</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1356</v>
       </c>
@@ -11950,12 +10349,8 @@
       <c r="E403" t="s">
         <v>1358</v>
       </c>
-      <c r="F403" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("son", null, null, "Songhai languages")</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1359</v>
       </c>
@@ -11968,12 +10363,8 @@
       <c r="E404" t="s">
         <v>1362</v>
       </c>
-      <c r="F404" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sot", null, "st", "Sotho, Southern")</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1363</v>
       </c>
@@ -11986,12 +10377,8 @@
       <c r="E405" t="s">
         <v>1366</v>
       </c>
-      <c r="F405" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("spa", null, "es", "Spanish; Castilian")</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1367</v>
       </c>
@@ -12004,12 +10391,8 @@
       <c r="E406" t="s">
         <v>1370</v>
       </c>
-      <c r="F406" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("srd", null, "sc", "Sardinian")</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1371</v>
       </c>
@@ -12019,12 +10402,8 @@
       <c r="E407" t="s">
         <v>1373</v>
       </c>
-      <c r="F407" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("srn", null, null, "Sranan Tongo")</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1374</v>
       </c>
@@ -12037,12 +10416,8 @@
       <c r="E408" t="s">
         <v>1377</v>
       </c>
-      <c r="F408" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("srp", null, "sr", "Serbian")</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1378</v>
       </c>
@@ -12052,12 +10427,8 @@
       <c r="E409" t="s">
         <v>1380</v>
       </c>
-      <c r="F409" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("srr", null, null, "Serer")</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1381</v>
       </c>
@@ -12067,12 +10438,8 @@
       <c r="E410" t="s">
         <v>1383</v>
       </c>
-      <c r="F410" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ssa", null, null, "Nilo-Saharan languages")</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1384</v>
       </c>
@@ -12085,12 +10452,8 @@
       <c r="E411" t="s">
         <v>1387</v>
       </c>
-      <c r="F411" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ssw", null, "ss", "Swati")</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1388</v>
       </c>
@@ -12100,12 +10463,8 @@
       <c r="E412" t="s">
         <v>1390</v>
       </c>
-      <c r="F412" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("suk", null, null, "Sukuma")</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1391</v>
       </c>
@@ -12118,12 +10477,8 @@
       <c r="E413" t="s">
         <v>1394</v>
       </c>
-      <c r="F413" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sun", null, "su", "Sundanese")</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1395</v>
       </c>
@@ -12133,12 +10488,8 @@
       <c r="E414" t="s">
         <v>1397</v>
       </c>
-      <c r="F414" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sus", null, null, "Susu")</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1398</v>
       </c>
@@ -12148,12 +10499,8 @@
       <c r="E415" t="s">
         <v>1400</v>
       </c>
-      <c r="F415" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("sux", null, null, "Sumerian")</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1401</v>
       </c>
@@ -12166,12 +10513,8 @@
       <c r="E416" t="s">
         <v>1404</v>
       </c>
-      <c r="F416" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("swa", null, "sw", "Swahili")</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1405</v>
       </c>
@@ -12184,12 +10527,8 @@
       <c r="E417" t="s">
         <v>1408</v>
       </c>
-      <c r="F417" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("swe", null, "sv", "Swedish")</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1409</v>
       </c>
@@ -12199,12 +10538,8 @@
       <c r="E418" t="s">
         <v>1411</v>
       </c>
-      <c r="F418" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("syc", null, null, "Classical Syriac")</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1412</v>
       </c>
@@ -12214,12 +10549,8 @@
       <c r="E419" t="s">
         <v>1414</v>
       </c>
-      <c r="F419" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("syr", null, null, "Syriac")</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1415</v>
       </c>
@@ -12232,12 +10563,8 @@
       <c r="E420" t="s">
         <v>1418</v>
       </c>
-      <c r="F420" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tah", null, "ty", "Tahitian")</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1419</v>
       </c>
@@ -12247,12 +10574,8 @@
       <c r="E421" t="s">
         <v>1421</v>
       </c>
-      <c r="F421" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tai", null, null, "Tai languages")</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1422</v>
       </c>
@@ -12265,12 +10588,8 @@
       <c r="E422" t="s">
         <v>1425</v>
       </c>
-      <c r="F422" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tam", null, "ta", "Tamil")</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1426</v>
       </c>
@@ -12283,12 +10602,8 @@
       <c r="E423" t="s">
         <v>1429</v>
       </c>
-      <c r="F423" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tat", null, "tt", "Tatar")</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1430</v>
       </c>
@@ -12301,12 +10616,8 @@
       <c r="E424" t="s">
         <v>1433</v>
       </c>
-      <c r="F424" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tel", null, "te", "Telugu")</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1434</v>
       </c>
@@ -12316,12 +10627,8 @@
       <c r="E425" t="s">
         <v>1436</v>
       </c>
-      <c r="F425" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tem", null, null, "Timne")</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1437</v>
       </c>
@@ -12331,12 +10638,8 @@
       <c r="E426" t="s">
         <v>1439</v>
       </c>
-      <c r="F426" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ter", null, null, "Tereno")</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1440</v>
       </c>
@@ -12346,12 +10649,8 @@
       <c r="E427" t="s">
         <v>1442</v>
       </c>
-      <c r="F427" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tet", null, null, "Tetum")</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1443</v>
       </c>
@@ -12364,12 +10663,8 @@
       <c r="E428" t="s">
         <v>1446</v>
       </c>
-      <c r="F428" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tgk", null, "tg", "Tajik")</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1447</v>
       </c>
@@ -12382,12 +10677,8 @@
       <c r="E429" t="s">
         <v>1450</v>
       </c>
-      <c r="F429" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tgl", null, "tl", "Tagalog")</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1451</v>
       </c>
@@ -12400,12 +10691,8 @@
       <c r="E430" t="s">
         <v>1454</v>
       </c>
-      <c r="F430" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tha", null, "th", "Thai")</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1455</v>
       </c>
@@ -12421,12 +10708,8 @@
       <c r="E431" t="s">
         <v>1459</v>
       </c>
-      <c r="F431" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tib", "bod", "bo", "Tibetan")</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1460</v>
       </c>
@@ -12436,12 +10719,8 @@
       <c r="E432" t="s">
         <v>1462</v>
       </c>
-      <c r="F432" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tig", null, null, "Tigre")</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1463</v>
       </c>
@@ -12454,12 +10733,8 @@
       <c r="E433" t="s">
         <v>1466</v>
       </c>
-      <c r="F433" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tir", null, "ti", "Tigrinya")</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1467</v>
       </c>
@@ -12469,12 +10744,8 @@
       <c r="E434" t="s">
         <v>1467</v>
       </c>
-      <c r="F434" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tiv", null, null, "Tiv")</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1469</v>
       </c>
@@ -12484,12 +10755,8 @@
       <c r="E435" t="s">
         <v>1471</v>
       </c>
-      <c r="F435" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tkl", null, null, "Tokelau")</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1472</v>
       </c>
@@ -12499,12 +10766,8 @@
       <c r="E436" t="s">
         <v>1474</v>
       </c>
-      <c r="F436" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tlh", null, null, "Klingon; tlhIngan-Hol")</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1475</v>
       </c>
@@ -12514,12 +10777,8 @@
       <c r="E437" t="s">
         <v>1477</v>
       </c>
-      <c r="F437" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tli", null, null, "Tlingit")</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1478</v>
       </c>
@@ -12529,12 +10788,8 @@
       <c r="E438" t="s">
         <v>1480</v>
       </c>
-      <c r="F438" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tmh", null, null, "Tamashek")</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1481</v>
       </c>
@@ -12544,12 +10799,8 @@
       <c r="E439" t="s">
         <v>1483</v>
       </c>
-      <c r="F439" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tog", null, null, "Tonga (Nyasa)")</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1484</v>
       </c>
@@ -12562,12 +10813,8 @@
       <c r="E440" t="s">
         <v>1487</v>
       </c>
-      <c r="F440" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ton", null, "to", "Tonga (Tonga Islands)")</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1488</v>
       </c>
@@ -12577,12 +10824,8 @@
       <c r="E441" t="s">
         <v>1490</v>
       </c>
-      <c r="F441" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tpi", null, null, "Tok Pisin")</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1491</v>
       </c>
@@ -12592,12 +10835,8 @@
       <c r="E442" t="s">
         <v>1493</v>
       </c>
-      <c r="F442" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tsi", null, null, "Tsimshian")</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1494</v>
       </c>
@@ -12610,12 +10849,8 @@
       <c r="E443" t="s">
         <v>1497</v>
       </c>
-      <c r="F443" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tsn", null, "tn", "Tswana")</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1498</v>
       </c>
@@ -12628,12 +10863,8 @@
       <c r="E444" t="s">
         <v>1501</v>
       </c>
-      <c r="F444" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tso", null, "ts", "Tsonga")</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1502</v>
       </c>
@@ -12646,12 +10877,8 @@
       <c r="E445" t="s">
         <v>1505</v>
       </c>
-      <c r="F445" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tuk", null, "tk", "Turkmen")</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1506</v>
       </c>
@@ -12661,12 +10888,8 @@
       <c r="E446" t="s">
         <v>1508</v>
       </c>
-      <c r="F446" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tum", null, null, "Tumbuka")</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1509</v>
       </c>
@@ -12676,12 +10899,8 @@
       <c r="E447" t="s">
         <v>1511</v>
       </c>
-      <c r="F447" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tup", null, null, "Tupi languages")</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1512</v>
       </c>
@@ -12694,12 +10913,8 @@
       <c r="E448" t="s">
         <v>1515</v>
       </c>
-      <c r="F448" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tur", null, "tr", "Turkish")</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1516</v>
       </c>
@@ -12709,12 +10924,8 @@
       <c r="E449" t="s">
         <v>1518</v>
       </c>
-      <c r="F449" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tut", null, null, "Altaic languages")</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1519</v>
       </c>
@@ -12724,12 +10935,8 @@
       <c r="E450" t="s">
         <v>1521</v>
       </c>
-      <c r="F450" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tvl", null, null, "Tuvalu")</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1522</v>
       </c>
@@ -12742,12 +10949,8 @@
       <c r="E451" t="s">
         <v>1522</v>
       </c>
-      <c r="F451" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("twi", null, "tw", "Twi")</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1525</v>
       </c>
@@ -12757,12 +10960,8 @@
       <c r="E452" t="s">
         <v>1527</v>
       </c>
-      <c r="F452" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("tyv", null, null, "Tuvinian")</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1528</v>
       </c>
@@ -12772,12 +10971,8 @@
       <c r="E453" t="s">
         <v>1530</v>
       </c>
-      <c r="F453" t="str">
-        <f t="shared" ref="F453:F490" si="7">SUBSTITUTE("    addIso639_2_LanguageDetails(""" &amp; A453 &amp; """, """ &amp; B453 &amp; """, """ &amp; C453 &amp; """, """ &amp; D453 &amp; """)", """""", "null")</f>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("udm", null, null, "Udmurt")</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1531</v>
       </c>
@@ -12787,12 +10982,8 @@
       <c r="E454" t="s">
         <v>1533</v>
       </c>
-      <c r="F454" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("uga", null, null, "Ugaritic")</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1534</v>
       </c>
@@ -12805,12 +10996,8 @@
       <c r="E455" t="s">
         <v>1537</v>
       </c>
-      <c r="F455" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("uig", null, "ug", "Uighur; Uyghur")</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1538</v>
       </c>
@@ -12823,12 +11010,8 @@
       <c r="E456" t="s">
         <v>1541</v>
       </c>
-      <c r="F456" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ukr", null, "uk", "Ukrainian")</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1542</v>
       </c>
@@ -12838,12 +11021,8 @@
       <c r="E457" t="s">
         <v>1544</v>
       </c>
-      <c r="F457" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("umb", null, null, "Umbundu")</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1545</v>
       </c>
@@ -12853,12 +11032,8 @@
       <c r="E458" t="s">
         <v>1547</v>
       </c>
-      <c r="F458" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("und", null, null, "Undetermined")</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1548</v>
       </c>
@@ -12871,12 +11046,8 @@
       <c r="E459" t="s">
         <v>1551</v>
       </c>
-      <c r="F459" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("urd", null, "ur", "Urdu")</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1552</v>
       </c>
@@ -12889,12 +11060,8 @@
       <c r="E460" t="s">
         <v>1555</v>
       </c>
-      <c r="F460" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("uzb", null, "uz", "Uzbek")</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1556</v>
       </c>
@@ -12904,12 +11071,8 @@
       <c r="E461" t="s">
         <v>1558</v>
       </c>
-      <c r="F461" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("vai", null, null, "Vai")</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1559</v>
       </c>
@@ -12922,12 +11085,8 @@
       <c r="E462" t="s">
         <v>1562</v>
       </c>
-      <c r="F462" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ven", null, "ve", "Venda")</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1563</v>
       </c>
@@ -12940,12 +11099,8 @@
       <c r="E463" t="s">
         <v>1566</v>
       </c>
-      <c r="F463" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("vie", null, "vi", "Vietnamese")</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1567</v>
       </c>
@@ -12958,12 +11113,8 @@
       <c r="E464" t="s">
         <v>1570</v>
       </c>
-      <c r="F464" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("vol", null, "vo", "Volapük")</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1571</v>
       </c>
@@ -12973,12 +11124,8 @@
       <c r="E465" t="s">
         <v>1573</v>
       </c>
-      <c r="F465" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("vot", null, null, "Votic")</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1574</v>
       </c>
@@ -12988,12 +11135,8 @@
       <c r="E466" t="s">
         <v>1576</v>
       </c>
-      <c r="F466" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("wak", null, null, "Wakashan languages")</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1577</v>
       </c>
@@ -13003,12 +11146,8 @@
       <c r="E467" t="s">
         <v>1579</v>
       </c>
-      <c r="F467" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("wal", null, null, "Wolaitta; Wolaytta")</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1580</v>
       </c>
@@ -13018,12 +11157,8 @@
       <c r="E468" t="s">
         <v>1582</v>
       </c>
-      <c r="F468" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("war", null, null, "Waray")</v>
-      </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1583</v>
       </c>
@@ -13033,12 +11168,8 @@
       <c r="E469" t="s">
         <v>1585</v>
       </c>
-      <c r="F469" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("was", null, null, "Washo")</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1586</v>
       </c>
@@ -13054,12 +11185,8 @@
       <c r="E470" t="s">
         <v>1590</v>
       </c>
-      <c r="F470" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("wel", "cym", "cy", "Welsh")</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1591</v>
       </c>
@@ -13069,12 +11196,8 @@
       <c r="E471" t="s">
         <v>1593</v>
       </c>
-      <c r="F471" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("wen", null, null, "Sorbian languages")</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1594</v>
       </c>
@@ -13087,12 +11210,8 @@
       <c r="E472" t="s">
         <v>1597</v>
       </c>
-      <c r="F472" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("wln", null, "wa", "Walloon")</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1598</v>
       </c>
@@ -13105,12 +11224,8 @@
       <c r="E473" t="s">
         <v>1601</v>
       </c>
-      <c r="F473" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("wol", null, "wo", "Wolof")</v>
-      </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1602</v>
       </c>
@@ -13120,12 +11235,8 @@
       <c r="E474" t="s">
         <v>1604</v>
       </c>
-      <c r="F474" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("xal", null, null, "Kalmyk; Oirat")</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1605</v>
       </c>
@@ -13138,12 +11249,8 @@
       <c r="E475" t="s">
         <v>1608</v>
       </c>
-      <c r="F475" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("xho", null, "xh", "Xhosa")</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1609</v>
       </c>
@@ -13153,12 +11260,8 @@
       <c r="E476" t="s">
         <v>1609</v>
       </c>
-      <c r="F476" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("yao", null, null, "Yao")</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1611</v>
       </c>
@@ -13168,12 +11271,8 @@
       <c r="E477" t="s">
         <v>1613</v>
       </c>
-      <c r="F477" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("yap", null, null, "Yapese")</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1614</v>
       </c>
@@ -13186,12 +11285,8 @@
       <c r="E478" t="s">
         <v>1617</v>
       </c>
-      <c r="F478" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("yid", null, "yi", "Yiddish")</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1618</v>
       </c>
@@ -13204,12 +11299,8 @@
       <c r="E479" t="s">
         <v>1621</v>
       </c>
-      <c r="F479" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("yor", null, "yo", "Yoruba")</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1622</v>
       </c>
@@ -13219,12 +11310,8 @@
       <c r="E480" t="s">
         <v>1624</v>
       </c>
-      <c r="F480" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("ypk", null, null, "Yupik languages")</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1625</v>
       </c>
@@ -13234,12 +11321,8 @@
       <c r="E481" t="s">
         <v>1627</v>
       </c>
-      <c r="F481" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("zap", null, null, "Zapotec")</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1628</v>
       </c>
@@ -13249,12 +11332,8 @@
       <c r="E482" t="s">
         <v>1630</v>
       </c>
-      <c r="F482" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("zbl", null, null, "Blissymbols; Blissymbolics; Bliss")</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1631</v>
       </c>
@@ -13264,12 +11343,8 @@
       <c r="E483" t="s">
         <v>1633</v>
       </c>
-      <c r="F483" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("zen", null, null, "Zenaga")</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1634</v>
       </c>
@@ -13279,12 +11354,8 @@
       <c r="E484" t="s">
         <v>1636</v>
       </c>
-      <c r="F484" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("zgh", null, null, "Standard Moroccan Tamazight")</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1637</v>
       </c>
@@ -13297,12 +11368,8 @@
       <c r="E485" t="s">
         <v>1640</v>
       </c>
-      <c r="F485" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("zha", null, "za", "Zhuang; Chuang")</v>
-      </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1641</v>
       </c>
@@ -13312,12 +11379,8 @@
       <c r="E486" t="s">
         <v>1643</v>
       </c>
-      <c r="F486" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("znd", null, null, "Zande languages")</v>
-      </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1644</v>
       </c>
@@ -13330,12 +11393,8 @@
       <c r="E487" t="s">
         <v>1647</v>
       </c>
-      <c r="F487" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("zul", null, "zu", "Zulu")</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1648</v>
       </c>
@@ -13345,12 +11404,8 @@
       <c r="E488" t="s">
         <v>1650</v>
       </c>
-      <c r="F488" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("zun", null, null, "Zuni")</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1651</v>
       </c>
@@ -13360,12 +11415,8 @@
       <c r="E489" t="s">
         <v>1653</v>
       </c>
-      <c r="F489" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("zxx", null, null, "No linguistic content; Not applicable")</v>
-      </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1654</v>
       </c>
@@ -13374,10 +11425,6 @@
       </c>
       <c r="E490" t="s">
         <v>1656</v>
-      </c>
-      <c r="F490" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    addIso639_2_LanguageDetails("zza", null, null, "Zaza; Dimili; Dimli; Kirdki; Kirmanjki; Zazaki")</v>
       </c>
     </row>
   </sheetData>
